--- a/experience/sub-07DB/sub-07DBresults_taplen.xlsx
+++ b/experience/sub-07DB/sub-07DBresults_taplen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/experience/sub-07DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{54F7F1C7-DA3C-48FC-B2EB-5C073BCCC49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3118B710-EA18-4753-B36D-599D1CDAE150}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{54F7F1C7-DA3C-48FC-B2EB-5C073BCCC49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51540DBE-4086-48AA-AA57-15E7DC311A30}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="2420" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sub-07DBresults_taplen (2)" sheetId="2" r:id="rId1"/>
@@ -692,7 +692,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -710,7 +710,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -748,23 +748,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="sub_07DBresults_taplen" displayName="sub_07DBresults_taplen" ref="A1:G12" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:G11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" totalsRowLabel="Moyenne" queryTableFieldId="1" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="400" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="12" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" totalsRowLabel="Moyenne" queryTableFieldId="1" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="400" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>AVERAGE(sub_07DBresults_taplen[400])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="600" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="11" totalsRowDxfId="4">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="600" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>AVERAGE(sub_07DBresults_taplen[600])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="800" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="10" totalsRowDxfId="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="800" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>AVERAGE(sub_07DBresults_taplen[800])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="1000" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="9" totalsRowDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="1000" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>AVERAGE(sub_07DBresults_taplen[1000])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="1200" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="8" totalsRowDxfId="1">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="1200" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(sub_07DBresults_taplen[1200])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="1400" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="7" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="1400" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>AVERAGE(sub_07DBresults_taplen[1400])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
